--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/L1cam-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/L1cam-Egfr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H2">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I2">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J2">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N2">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O2">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P2">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q2">
-        <v>2.561597003726</v>
+        <v>45.30608306591676</v>
       </c>
       <c r="R2">
-        <v>10.246388014904</v>
+        <v>181.224332263667</v>
       </c>
       <c r="S2">
-        <v>0.0009773166692065311</v>
+        <v>0.008238727221335831</v>
       </c>
       <c r="T2">
-        <v>0.000552160932429951</v>
+        <v>0.004573804378807415</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H3">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I3">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J3">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N3">
         <v>150.307245</v>
       </c>
       <c r="O3">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P3">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q3">
-        <v>225.2273401436851</v>
+        <v>847.1083602482325</v>
       </c>
       <c r="R3">
-        <v>1351.36404086211</v>
+        <v>5082.650161489395</v>
       </c>
       <c r="S3">
-        <v>0.08593015746165261</v>
+        <v>0.1540432152751816</v>
       </c>
       <c r="T3">
-        <v>0.0728227769404573</v>
+        <v>0.1282777388344508</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H4">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I4">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J4">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N4">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O4">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P4">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q4">
-        <v>1.821262620708667</v>
+        <v>4.707164964258166</v>
       </c>
       <c r="R4">
-        <v>10.927575724252</v>
+        <v>28.242989785549</v>
       </c>
       <c r="S4">
-        <v>0.0006948596190705662</v>
+        <v>0.0008559788333484649</v>
       </c>
       <c r="T4">
-        <v>0.0005888690133855342</v>
+        <v>0.0007128066564693614</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H5">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I5">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J5">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N5">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O5">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P5">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q5">
-        <v>98.43644525186352</v>
+        <v>220.9435062064993</v>
       </c>
       <c r="R5">
-        <v>393.7457810074541</v>
+        <v>883.774024825997</v>
       </c>
       <c r="S5">
-        <v>0.0375560943669704</v>
+        <v>0.04017767937061532</v>
       </c>
       <c r="T5">
-        <v>0.02121831002936814</v>
+        <v>0.02230500426810404</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H6">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I6">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J6">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N6">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O6">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P6">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q6">
-        <v>4.625840189616333</v>
+        <v>31.50209196437417</v>
       </c>
       <c r="R6">
-        <v>27.755041137698</v>
+        <v>189.012551786245</v>
       </c>
       <c r="S6">
-        <v>0.001764879768293608</v>
+        <v>0.005728527496369709</v>
       </c>
       <c r="T6">
-        <v>0.001495673340881827</v>
+        <v>0.004770366242827162</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H7">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I7">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J7">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N7">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O7">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P7">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q7">
-        <v>1.277317611030667</v>
+        <v>1.854779187730667</v>
       </c>
       <c r="R7">
-        <v>7.663905666184</v>
+        <v>11.128675126384</v>
       </c>
       <c r="S7">
-        <v>0.000487330283145843</v>
+        <v>0.0003372840631861981</v>
       </c>
       <c r="T7">
-        <v>0.000412995222564289</v>
+        <v>0.00028086947479726</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.389289</v>
       </c>
       <c r="I8">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J8">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N8">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O8">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P8">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q8">
-        <v>0.2638880360086667</v>
+        <v>1.240930764008833</v>
       </c>
       <c r="R8">
-        <v>1.583328216052</v>
+        <v>7.445584584053001</v>
       </c>
       <c r="S8">
-        <v>0.0001006802303486101</v>
+        <v>0.0002256582201193157</v>
       </c>
       <c r="T8">
-        <v>8.532294334806275E-05</v>
+        <v>0.000187914321150737</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.389289</v>
       </c>
       <c r="I9">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J9">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N9">
         <v>150.307245</v>
       </c>
       <c r="O9">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P9">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q9">
         <v>23.202244677645</v>
@@ -1013,10 +1013,10 @@
         <v>208.820202098805</v>
       </c>
       <c r="S9">
-        <v>0.008852266946552261</v>
+        <v>0.004219233972261299</v>
       </c>
       <c r="T9">
-        <v>0.01125297591047427</v>
+        <v>0.005270278791003434</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.389289</v>
       </c>
       <c r="I10">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J10">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N10">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O10">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P10">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q10">
-        <v>0.1876210096028889</v>
+        <v>0.1289289521434444</v>
       </c>
       <c r="R10">
-        <v>1.688589086426</v>
+        <v>1.160360569291</v>
       </c>
       <c r="S10">
-        <v>7.15823526930841E-05</v>
+        <v>2.344520637763076E-05</v>
       </c>
       <c r="T10">
-        <v>9.0995277857507E-05</v>
+        <v>2.928559419436566E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.389289</v>
       </c>
       <c r="I11">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J11">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N11">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O11">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P11">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q11">
-        <v>10.14062718351283</v>
+        <v>6.051628730753833</v>
       </c>
       <c r="R11">
-        <v>60.843763101077</v>
+        <v>36.30977238452299</v>
       </c>
       <c r="S11">
-        <v>0.003868916136394752</v>
+        <v>0.001100464109531177</v>
       </c>
       <c r="T11">
-        <v>0.003278769935080628</v>
+        <v>0.0009163989948336937</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.389289</v>
       </c>
       <c r="I12">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J12">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N12">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O12">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P12">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q12">
-        <v>0.4765401742554444</v>
+        <v>0.8628403164394444</v>
       </c>
       <c r="R12">
-        <v>4.288861568299</v>
+        <v>7.765562847954999</v>
       </c>
       <c r="S12">
-        <v>0.0001818126173512059</v>
+        <v>0.0001569040076223996</v>
       </c>
       <c r="T12">
-        <v>0.0002311196686257001</v>
+        <v>0.0001959900467791744</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>1.389289</v>
       </c>
       <c r="I13">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J13">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N13">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O13">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P13">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q13">
-        <v>0.1315854270768889</v>
+        <v>0.05080228522844445</v>
       </c>
       <c r="R13">
-        <v>1.184268843692</v>
+        <v>0.457220567056</v>
       </c>
       <c r="S13">
-        <v>5.020330329862442E-05</v>
+        <v>9.238189264975764E-06</v>
       </c>
       <c r="T13">
-        <v>6.381829265391536E-05</v>
+        <v>1.153949585886159E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H14">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I14">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J14">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N14">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O14">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P14">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q14">
-        <v>3.873902292255333</v>
+        <v>20.00627929441167</v>
       </c>
       <c r="R14">
-        <v>23.243413753532</v>
+        <v>120.03767576647</v>
       </c>
       <c r="S14">
-        <v>0.00147799567207157</v>
+        <v>0.003638060645867525</v>
       </c>
       <c r="T14">
-        <v>0.001252549190245127</v>
+        <v>0.003029553703879851</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H15">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I15">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J15">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N15">
         <v>150.307245</v>
       </c>
       <c r="O15">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P15">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q15">
-        <v>340.6112311936951</v>
+        <v>374.0664674785501</v>
       </c>
       <c r="R15">
-        <v>3065.501080743256</v>
+        <v>3366.59820730695</v>
       </c>
       <c r="S15">
-        <v>0.1299521483981891</v>
+        <v>0.0680224680584425</v>
       </c>
       <c r="T15">
-        <v>0.1651947918277304</v>
+        <v>0.08496740713527705</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H16">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I16">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J16">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N16">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O16">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P16">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q16">
-        <v>2.754294852351778</v>
+        <v>2.078591892898889</v>
       </c>
       <c r="R16">
-        <v>24.78865367116601</v>
+        <v>18.70732703609</v>
       </c>
       <c r="S16">
-        <v>0.001050835969591516</v>
+        <v>0.0003779834947364266</v>
       </c>
       <c r="T16">
-        <v>0.001335819618078594</v>
+        <v>0.0004721421966061514</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H17">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I17">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J17">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N17">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O17">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P17">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q17">
-        <v>148.8654032418012</v>
+        <v>97.56432678196167</v>
       </c>
       <c r="R17">
-        <v>893.1924194508072</v>
+        <v>585.38596069177</v>
       </c>
       <c r="S17">
-        <v>0.05679606895414935</v>
+        <v>0.01774167662475651</v>
       </c>
       <c r="T17">
-        <v>0.04813266474448871</v>
+        <v>0.01477417980720678</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H18">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I18">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J18">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N18">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O18">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P18">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q18">
-        <v>6.99565657208989</v>
+        <v>13.91070707393889</v>
       </c>
       <c r="R18">
-        <v>62.96090914880901</v>
+        <v>125.19636366545</v>
       </c>
       <c r="S18">
-        <v>0.002669027083496301</v>
+        <v>0.002529605591181781</v>
       </c>
       <c r="T18">
-        <v>0.003392859439997454</v>
+        <v>0.003159750510271869</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H19">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I19">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J19">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N19">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O19">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P19">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q19">
-        <v>1.931686996085778</v>
+        <v>0.8190341770488889</v>
       </c>
       <c r="R19">
-        <v>17.385182964772</v>
+        <v>7.371307593440001</v>
       </c>
       <c r="S19">
-        <v>0.0007369894242607637</v>
+        <v>0.0001489380390672829</v>
       </c>
       <c r="T19">
-        <v>0.0009368588054962258</v>
+        <v>0.0001860396919512976</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H20">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I20">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J20">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N20">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O20">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P20">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q20">
-        <v>4.98650051803</v>
+        <v>40.74960700304725</v>
       </c>
       <c r="R20">
-        <v>19.94600207212</v>
+        <v>162.998428012189</v>
       </c>
       <c r="S20">
-        <v>0.00190248117490342</v>
+        <v>0.007410150552769912</v>
       </c>
       <c r="T20">
-        <v>0.001074857119052279</v>
+        <v>0.004113812502264865</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H21">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I21">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J21">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N21">
         <v>150.307245</v>
       </c>
       <c r="O21">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P21">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q21">
-        <v>438.4359626699251</v>
+        <v>761.9138630653275</v>
       </c>
       <c r="R21">
-        <v>2630.615776019551</v>
+        <v>4571.483178391964</v>
       </c>
       <c r="S21">
-        <v>0.1672748578615856</v>
+        <v>0.1385509419301736</v>
       </c>
       <c r="T21">
-        <v>0.1417595407902872</v>
+        <v>0.1153767240734129</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H22">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I22">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J22">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N22">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O22">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P22">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q22">
-        <v>3.545337923343334</v>
+        <v>4.233760886213833</v>
       </c>
       <c r="R22">
-        <v>21.27202754006</v>
+        <v>25.402565317283</v>
       </c>
       <c r="S22">
-        <v>0.001352639718665181</v>
+        <v>0.0007698922242103344</v>
       </c>
       <c r="T22">
-        <v>0.00114631444213419</v>
+        <v>0.0006411190099577159</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H23">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I23">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J23">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N23">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O23">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P23">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q23">
-        <v>191.6200653449675</v>
+        <v>198.7230066808247</v>
       </c>
       <c r="R23">
-        <v>766.4802613798701</v>
+        <v>794.8920267232988</v>
       </c>
       <c r="S23">
-        <v>0.07310809769986484</v>
+        <v>0.03613697176745518</v>
       </c>
       <c r="T23">
-        <v>0.04130435575903053</v>
+        <v>0.02006176867693736</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H24">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I24">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J24">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N24">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O24">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P24">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q24">
-        <v>9.004833495781666</v>
+        <v>28.33389647598583</v>
       </c>
       <c r="R24">
-        <v>54.02900097469</v>
+        <v>170.003378855915</v>
       </c>
       <c r="S24">
-        <v>0.003435580954402963</v>
+        <v>0.005152404012582285</v>
       </c>
       <c r="T24">
-        <v>0.002911533655864882</v>
+        <v>0.004290605951809762</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H25">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I25">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J25">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N25">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O25">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P25">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q25">
-        <v>2.486474226753333</v>
+        <v>1.668242272621333</v>
       </c>
       <c r="R25">
-        <v>14.91884536052</v>
+        <v>10.009453635728</v>
       </c>
       <c r="S25">
-        <v>0.0009486553528223849</v>
+        <v>0.0003033630826843234</v>
       </c>
       <c r="T25">
-        <v>0.0008039519441446945</v>
+        <v>0.0002526221633525149</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H26">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I26">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J26">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N26">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O26">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P26">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q26">
-        <v>3.578117228262666</v>
+        <v>94.83163745875051</v>
       </c>
       <c r="R26">
-        <v>21.46870336957599</v>
+        <v>568.9898247525031</v>
       </c>
       <c r="S26">
-        <v>0.001365145886128708</v>
+        <v>0.01724474816855257</v>
       </c>
       <c r="T26">
-        <v>0.00115691297785761</v>
+        <v>0.01436036827639407</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H27">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I27">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J27">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N27">
         <v>150.307245</v>
       </c>
       <c r="O27">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P27">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q27">
-        <v>314.60445373401</v>
+        <v>1773.110087456895</v>
       </c>
       <c r="R27">
-        <v>2831.44008360609</v>
+        <v>15957.99078711205</v>
       </c>
       <c r="S27">
-        <v>0.1200298783897824</v>
+        <v>0.3224328689527751</v>
       </c>
       <c r="T27">
-        <v>0.1525816311474248</v>
+        <v>0.4027534670833753</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H28">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I28">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J28">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N28">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O28">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P28">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q28">
-        <v>2.543995464887555</v>
+        <v>9.852720234048999</v>
       </c>
       <c r="R28">
-        <v>22.895959183988</v>
+        <v>88.67448210644099</v>
       </c>
       <c r="S28">
-        <v>0.0009706012189286473</v>
+        <v>0.001791677163491805</v>
       </c>
       <c r="T28">
-        <v>0.001233825437170638</v>
+        <v>0.00223799822838819</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H29">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I29">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J29">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N29">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O29">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P29">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q29">
-        <v>137.4990445930043</v>
+        <v>462.4640459197454</v>
       </c>
       <c r="R29">
-        <v>824.994267558026</v>
+        <v>2774.784275518473</v>
       </c>
       <c r="S29">
-        <v>0.05245950400677825</v>
+        <v>0.08409720872282637</v>
       </c>
       <c r="T29">
-        <v>0.04445757894016977</v>
+        <v>0.0700309958993116</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H30">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I30">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J30">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N30">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O30">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P30">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q30">
-        <v>6.461515395895776</v>
+        <v>65.93805427874499</v>
       </c>
       <c r="R30">
-        <v>58.15363856306199</v>
+        <v>593.442488508705</v>
       </c>
       <c r="S30">
-        <v>0.002465238168048332</v>
+        <v>0.01199056740168504</v>
       </c>
       <c r="T30">
-        <v>0.003133803565360637</v>
+        <v>0.01497751333172196</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H31">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I31">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J31">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N31">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O31">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P31">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q31">
-        <v>1.784196399099555</v>
+        <v>3.882298702384</v>
       </c>
       <c r="R31">
-        <v>16.057767591896</v>
+        <v>34.940688321456</v>
       </c>
       <c r="S31">
-        <v>0.0006807178800732156</v>
+        <v>0.0007059802533393122</v>
       </c>
       <c r="T31">
-        <v>0.0008653265827321698</v>
+        <v>0.0008818455626074921</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H32">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I32">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J32">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N32">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O32">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P32">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q32">
-        <v>4.841042981688</v>
+        <v>14.24609800557533</v>
       </c>
       <c r="R32">
-        <v>29.046257890128</v>
+        <v>85.476588033452</v>
       </c>
       <c r="S32">
-        <v>0.001846985296854697</v>
+        <v>0.002590595070105442</v>
       </c>
       <c r="T32">
-        <v>0.001565254879757173</v>
+        <v>0.002157288636407358</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H33">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I33">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J33">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N33">
         <v>150.307245</v>
       </c>
       <c r="O33">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P33">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q33">
-        <v>425.6466699097801</v>
+        <v>266.36574836718</v>
       </c>
       <c r="R33">
-        <v>3830.820029188021</v>
+        <v>2397.29173530462</v>
       </c>
       <c r="S33">
-        <v>0.1623954061040799</v>
+        <v>0.04843752965162165</v>
       </c>
       <c r="T33">
-        <v>0.2064365663501186</v>
+        <v>0.06050370443778082</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H34">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I34">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J34">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N34">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O34">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P34">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q34">
-        <v>3.441919480296001</v>
+        <v>1.480126483493778</v>
       </c>
       <c r="R34">
-        <v>30.97727532266401</v>
+        <v>13.321138351444</v>
       </c>
       <c r="S34">
-        <v>0.00131318286103046</v>
+        <v>0.0002691549903539099</v>
       </c>
       <c r="T34">
-        <v>0.001669314220915898</v>
+        <v>0.000336203644187736</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H35">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I35">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J35">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N35">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O35">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P35">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q35">
-        <v>186.030457459038</v>
+        <v>69.47373575715532</v>
       </c>
       <c r="R35">
-        <v>1116.182744754228</v>
+        <v>416.8424145429319</v>
       </c>
       <c r="S35">
-        <v>0.0709755151924286</v>
+        <v>0.0126335167204282</v>
       </c>
       <c r="T35">
-        <v>0.06014924519833253</v>
+        <v>0.01052041763429003</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H36">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I36">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J36">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N36">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O36">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P36">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q36">
-        <v>8.742160125804</v>
+        <v>9.905554820357777</v>
       </c>
       <c r="R36">
-        <v>78.67944113223601</v>
+        <v>89.14999338321998</v>
       </c>
       <c r="S36">
-        <v>0.003335364151110947</v>
+        <v>0.001801284918455235</v>
       </c>
       <c r="T36">
-        <v>0.004239905175897235</v>
+        <v>0.002249999351707214</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H37">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I37">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J37">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M37">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N37">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O37">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P37">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q37">
-        <v>2.413943117232</v>
+        <v>0.5832189476337778</v>
       </c>
       <c r="R37">
-        <v>21.725488055088</v>
+        <v>5.248970528704</v>
       </c>
       <c r="S37">
-        <v>0.0009209828257745567</v>
+        <v>0.0001060559972240013</v>
       </c>
       <c r="T37">
-        <v>0.001170750680585615</v>
+        <v>0.0001324753916239461</v>
       </c>
     </row>
   </sheetData>
